--- a/Data/Results from Final project, 12-9.xlsx
+++ b/Data/Results from Final project, 12-9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apiskadlo/Documents/All Work/U of U/2023 School/Fall 2023/Neural Engineering and NeurorRbotics/Labs/NENR_Project 4/NENR_FinalPjt/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B535A-2E81-274E-94EB-778E5BA9B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B903F-E9B9-2748-B2B7-98394D6A5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{CC6DA994-8028-F549-B3A8-9CFC684B706B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Participant</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Number of moves</t>
-  </si>
-  <si>
-    <t>`7.84</t>
   </si>
   <si>
     <t>Minimum number</t>
@@ -420,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD10529F-B03B-084D-B74D-6E6D309F7FF5}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -500,8 +497,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6">
+        <v>7.84</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -617,6 +614,34 @@
       </c>
       <c r="D14">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>15.17</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Results from Final project, 12-9.xlsx
+++ b/Data/Results from Final project, 12-9.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apiskadlo/Documents/All Work/U of U/2023 School/Fall 2023/Neural Engineering and NeurorRbotics/Labs/NENR_Project 4/NENR_FinalPjt/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NENR_FinalPjt\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B903F-E9B9-2748-B2B7-98394D6A5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743890F-DC3D-4C12-A086-F9C0D51CA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{CC6DA994-8028-F549-B3A8-9CFC684B706B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC6DA994-8028-F549-B3A8-9CFC684B706B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FinalData" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Participant</t>
   </si>
@@ -101,8 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,23 +423,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD10529F-B03B-084D-B74D-6E6D309F7FF5}">
-  <dimension ref="A2:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD40CA28-A51C-4EAE-9F08-F51F5C182C6C}">
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
@@ -442,7 +452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -459,7 +469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -470,7 +480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -487,14 +497,14 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
@@ -504,10 +514,396 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>5.43</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5.44</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10">
+        <v>11.92</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11">
+        <v>9.5</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>12.86</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <v>10.99</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14">
+        <v>11.36</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>6.25</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17">
+        <v>6.6</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19">
+        <v>8.01</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20">
+        <v>13.49</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>15.17</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22">
+        <v>11.89</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23">
+        <v>18.04</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25">
+        <v>5.44</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26">
+        <v>10.48</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7.02</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28">
+        <v>6.84</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29">
+        <v>7.5</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>10.61</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31">
+        <v>13.13</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32">
+        <v>11.9</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD10529F-B03B-084D-B74D-6E6D309F7FF5}">
+  <dimension ref="A2:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7.84</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -518,10 +914,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -529,13 +923,11 @@
         <v>12.86</v>
       </c>
       <c r="D8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -546,10 +938,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10">
         <v>3</v>
       </c>
@@ -557,13 +947,11 @@
         <v>10.99</v>
       </c>
       <c r="D10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11">
         <v>2</v>
       </c>
@@ -574,10 +962,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -588,10 +974,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>1</v>
       </c>
@@ -602,10 +986,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>3</v>
       </c>
@@ -613,11 +995,11 @@
         <v>11.36</v>
       </c>
       <c r="D14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15">
@@ -630,10 +1012,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>2</v>
       </c>
@@ -644,7 +1024,197 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>11.89</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6.25</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>8.01</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>18.04</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>13.49</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>6.6</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25">
+        <v>5.44</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26">
+        <v>10.48</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7.02</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28">
+        <v>6.84</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29">
+        <v>7.5</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>10.61</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31">
+        <v>13.13</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32">
+        <v>11.9</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Results from Final project, 12-9.xlsx
+++ b/Data/Results from Final project, 12-9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NENR_FinalPjt\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743890F-DC3D-4C12-A086-F9C0D51CA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0EF7C7-38B1-45E1-BBD4-09F13303D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC6DA994-8028-F549-B3A8-9CFC684B706B}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -436,13 +436,13 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="G2" t="s">
@@ -501,10 +501,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6">
@@ -515,8 +515,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>5.43</v>
       </c>
@@ -525,8 +525,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>4.9000000000000004</v>
       </c>
@@ -535,8 +535,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9">
@@ -547,8 +547,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>11.92</v>
       </c>
@@ -557,8 +557,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11">
         <v>9.5</v>
       </c>
@@ -567,8 +567,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12">
@@ -579,8 +579,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13">
         <v>10.99</v>
       </c>
@@ -589,8 +589,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>11.36</v>
       </c>
@@ -599,10 +599,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15">
@@ -613,8 +613,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>9.4600000000000009</v>
       </c>
@@ -623,8 +623,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>6.6</v>
       </c>
@@ -633,8 +633,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18">
@@ -645,8 +645,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19">
         <v>8.01</v>
       </c>
@@ -655,8 +655,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20">
         <v>13.49</v>
       </c>
@@ -665,8 +665,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21">
@@ -677,8 +677,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22">
         <v>11.89</v>
       </c>
@@ -687,8 +687,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23">
         <v>18.04</v>
       </c>
@@ -697,10 +697,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24">
@@ -711,8 +711,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25">
         <v>5.44</v>
       </c>
@@ -721,8 +721,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26">
         <v>10.48</v>
       </c>
@@ -731,8 +731,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27">
@@ -743,8 +743,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28">
         <v>6.84</v>
       </c>
@@ -753,8 +753,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29">
         <v>7.5</v>
       </c>
@@ -763,8 +763,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30">
@@ -775,8 +775,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31">
         <v>13.13</v>
       </c>
@@ -785,8 +785,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32">
         <v>11.9</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6">
@@ -903,7 +903,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10">
         <v>3</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>2</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13">
         <v>1</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14">
         <v>3</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15">
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17">
         <v>3</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21">
         <v>2</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22">
         <v>1</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23">
         <v>1</v>
       </c>
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24">
@@ -1123,8 +1123,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25">
         <v>5.44</v>
       </c>
@@ -1133,8 +1133,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26">
         <v>10.48</v>
       </c>
@@ -1143,8 +1143,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27">
@@ -1155,8 +1155,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28">
         <v>6.84</v>
       </c>
@@ -1165,8 +1165,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29">
         <v>7.5</v>
       </c>
@@ -1175,8 +1175,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30">
@@ -1187,8 +1187,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31">
         <v>13.13</v>
       </c>
@@ -1197,8 +1197,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32">
         <v>11.9</v>
       </c>
